--- a/doc/05_ファイル構成一覧表_BtwoB.xlsx
+++ b/doc/05_ファイル構成一覧表_BtwoB.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\講師\SEプラス\2022_Dojo\6月資料\配布物\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5A107C-E402-49FA-9027-A5C57B9445DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1E740A-20B5-4556-A4B9-092C9681E605}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="29340" yWindow="1965" windowWidth="15135" windowHeight="10605" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="servlet,dao" sheetId="1" r:id="rId1"/>
+    <sheet name="jsp" sheetId="3" r:id="rId2"/>
+    <sheet name="その他(css,js)" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="54">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -69,6 +71,290 @@
       <t>タントウシャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>servlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoginServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面用</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/WEB-INF/jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面用のjsp</t>
+    <rPh sb="4" eb="7">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録画面用</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RegistServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>regist.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録用のjsp</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TopServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップ画面用</t>
+    <rPh sb="3" eb="6">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>top.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップ画面用のjsp</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>愚痴入力画面用</t>
+    <rPh sb="0" eb="4">
+      <t>グチニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mur_in.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>愚痴入力画面用のjsp</t>
+    <rPh sb="0" eb="4">
+      <t>グチニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MurListServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MurInServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>愚痴一覧表示画面</t>
+    <rPh sb="0" eb="8">
+      <t>グチイチランヒョウジガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mur_list.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>愚痴一覧表示画面用のjsp</t>
+    <rPh sb="0" eb="2">
+      <t>グチ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GameCheckServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム選択/チェックボックス画面</t>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>game_check.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム選択/チェックボックス画面のjsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ClickGameServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SpaceGameServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MojiGameServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリック破壊ゲーム画面</t>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字クリックゲーム画面</t>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スペースキー連打ゲーム画面</t>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヤギのご飯ゲーム画面（手紙選択）画面</t>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LambGame1Servlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LambGame2Servlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヤギのご飯ゲーム画面（手紙給仕）画面</t>
+    <rPh sb="11" eb="13">
+      <t>テガミ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キュウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリック破壊ゲーム画面のjsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スペースキー連打ゲーム画面のjsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字クリックゲーム画面のjsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヤギのご飯ゲーム画面（手紙選択）画面のjsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヤギのご飯ゲーム画面（手紙給仕）画面のjsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>click_game.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>space_game.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>moji_game.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lamb_game1.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lamb_game2.jsp</t>
   </si>
 </sst>
 </file>
@@ -135,14 +421,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -464,51 +747,1247 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.875" customWidth="1"/>
-    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="1">
+        <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="1">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="1">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4009DE36-F9A8-4522-9F5C-56EF32EAE98B}">
+  <dimension ref="B2:G44"/>
+  <sheetViews>
+    <sheetView zoomScale="101" zoomScaleNormal="101" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.58203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="1">
+        <f>ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="1">
+        <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="1">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="1">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB15A5F4-F3D4-4BD8-9816-566626F542AC}">
+  <dimension ref="B2:G44"/>
+  <sheetViews>
+    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="1">
+        <f>ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
@@ -519,7 +1998,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -530,7 +2009,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -541,7 +2020,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -552,7 +2031,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -563,7 +2042,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -574,7 +2053,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -585,7 +2064,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -596,7 +2075,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -607,365 +2086,381 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -1136,36 +2631,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1188,9 +2657,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_BtwoB.xlsx
+++ b/doc/05_ファイル構成一覧表_BtwoB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1E740A-20B5-4556-A4B9-092C9681E605}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0812994E-6BC2-441D-966D-FEFF027F88F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29340" yWindow="1965" windowWidth="15135" windowHeight="10605" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="32730" yWindow="285" windowWidth="18810" windowHeight="13800" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="servlet,dao" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="118">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -355,6 +355,487 @@
   </si>
   <si>
     <t>lamb_game2.jsp</t>
+  </si>
+  <si>
+    <t>css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>header.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップ、愚痴入力、愚痴一覧表示、ゲーム選択/チェックボックスで共通</t>
+    <rPh sb="4" eb="8">
+      <t>グチニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="15">
+      <t>グチイチランヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>footer.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面、新規登録画面、トップ、愚痴入力、愚痴一覧表示、ゲーム選択.チェックボックスで共通</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>グチニュウリョク</t>
+    </rPh>
+    <rPh sb="23" eb="29">
+      <t>グチイチランヒョウジ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>top.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mur_in.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mur_list.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>game_check.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>moji_game.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lamb_game1.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lamb_game2.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップ画面用css</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>愚痴入力画面用css</t>
+    <rPh sb="0" eb="6">
+      <t>グチニュウリョクガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム選択.チェックボックス画面用css</t>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字クリックゲーム画面用css</t>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヤギのご飯ゲーム（手紙選択）画面用css</t>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヤギのご飯ゲーム（手紙給仕）画面用css</t>
+    <rPh sb="9" eb="11">
+      <t>テガミ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キュウジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login_regist.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップ画面、愚痴一覧表示画面用css。タグ、愚痴表示部分、スクロールバー、グラフが共通。</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="12">
+      <t>グチイチランヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>グチヒョウジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>popup.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録完了ポップアップ、削除選択ポップアップ、ゲーム開始ポップアップで共通</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面、新規登録画面用css。ログイン画面に表示するポップアップのOKボタンの作成。</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="13">
+      <t>シンキトウロクガメン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>愚痴一覧表示画面用css。ポップアップ画面のYES,NOボタンの作成。</t>
+    <rPh sb="0" eb="6">
+      <t>グチイチランヒョウジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>click_space_game.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリック破壊ゲーム画面用css、スペースキー連打ゲーム画面用css</t>
+    <rPh sb="4" eb="6">
+      <t>ハカイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>game_modal.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリック破壊ゲーム説明モーダル、スペースキー連打ゲーム説明モーダル、文字クリックゲームモーダル、ヤギのご飯ゲーム説明モーダル１ヤギのご飯ゲーム説明モーダル２で共通</t>
+    <rPh sb="79" eb="81">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JavaScript</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mur_list.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除ボタンと、ポップアップの「YES」の上にマウスカーソルがホバーするとマウスカーソルが爆弾になる。</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>バクダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マウスカーソルが称号の上にホバーすると称号が揺れる。</t>
+    <rPh sb="8" eb="10">
+      <t>ショウゴウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ショウゴウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ユ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グラフが表示されるとき、時計回りに情報が表示される。</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>トケイマワ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>crown.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>graph.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lamb.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヤギの画像の上にマウスカーソルがホバーされるとヤギの画像が動く。</t>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>button.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン共通JavaScript。何もない状態、ホバー状態、クリック状態。</t>
+    <rPh sb="3" eb="5">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>click_space_game.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>moji_game.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lamb_game1.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lamb_game2.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dao</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>users関連のデータアクセス用DAO</t>
+    <rPh sb="5" eb="7">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>murmurs関連のデータアクセス用DAO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eyecatches関連のデータアクセス用DAO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>logincounts関連のデータアクセス用DAO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gamecounts関連のデータアクセス用DAO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UsersDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MurmursDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EyecatchesDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LogincountsDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Users.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Murmurs.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Eyecatches.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Logincounts.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gamecounts.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GamecountsDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ情報</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoginUser.java</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -392,7 +873,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -415,13 +896,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -429,6 +921,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -747,8 +1245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -994,10 +1492,18 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1005,10 +1511,18 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1016,10 +1530,18 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1027,10 +1549,18 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1038,10 +1568,18 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1049,10 +1587,18 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1060,9 +1606,15 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
@@ -1071,9 +1623,15 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
@@ -1082,9 +1640,15 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
@@ -1093,9 +1657,15 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
@@ -1104,9 +1674,15 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
@@ -1341,8 +1917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4009DE36-F9A8-4522-9F5C-56EF32EAE98B}">
   <dimension ref="B2:G44"/>
   <sheetViews>
-    <sheetView zoomScale="101" zoomScaleNormal="101" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E14"/>
+    <sheetView zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1935,16 +2511,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB15A5F4-F3D4-4BD8-9816-566626F542AC}">
   <dimension ref="B2:G44"/>
   <sheetViews>
-    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="B4" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
     <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.83203125" customWidth="1"/>
+    <col min="5" max="5" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="161.58203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1974,16 +2550,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -1992,10 +2568,18 @@
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2003,10 +2587,18 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2014,10 +2606,18 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2025,10 +2625,18 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2036,10 +2644,18 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2047,10 +2663,18 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2058,10 +2682,18 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2069,10 +2701,18 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2080,10 +2720,18 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" t="s">
+        <v>69</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2091,10 +2739,18 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2102,10 +2758,18 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2113,10 +2777,18 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2124,10 +2796,18 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2135,10 +2815,18 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="C17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2146,10 +2834,18 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="C18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2157,10 +2853,18 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="C19" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2168,10 +2872,18 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="C20" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2179,10 +2891,18 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2190,10 +2910,18 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2201,10 +2929,18 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2212,10 +2948,18 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2223,10 +2967,18 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2446,21 +3198,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2631,10 +3368,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2657,20 +3420,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_BtwoB.xlsx
+++ b/doc/05_ファイル構成一覧表_BtwoB.xlsx
@@ -5,17 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6_sub\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0812994E-6BC2-441D-966D-FEFF027F88F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51120293-834A-42EE-9C8C-C0B750633EB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32730" yWindow="285" windowWidth="18810" windowHeight="13800" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="33075" yWindow="1605" windowWidth="19065" windowHeight="12090" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
-    <sheet name="servlet,dao" sheetId="1" r:id="rId1"/>
-    <sheet name="jsp" sheetId="3" r:id="rId2"/>
-    <sheet name="その他(css,js)" sheetId="5" r:id="rId3"/>
+    <sheet name="ファイル構成" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="123">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -827,14 +825,67 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザ情報</t>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>LoginUser.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>users関連のデータ操作モデル</t>
+    <rPh sb="5" eb="7">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Murmurs関連のデータ操作モデル</t>
+    <rPh sb="7" eb="9">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Eyecatches関連のデータ操作モデル</t>
+    <rPh sb="10" eb="12">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Logincounts関連のデータ操作モデル</t>
+    <rPh sb="11" eb="13">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gamecounts関連のデータ操作モデル</t>
+    <rPh sb="10" eb="12">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoginUser関連のデータ操作モデル</t>
+    <rPh sb="9" eb="11">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ソウサ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -873,7 +924,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -896,24 +947,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -923,10 +963,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1243,10 +1280,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G44"/>
+  <dimension ref="B2:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1254,7 +1291,7 @@
     <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.83203125" customWidth="1"/>
+    <col min="6" max="6" width="155.08203125" customWidth="1"/>
     <col min="7" max="7" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1299,7 +1336,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B58" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1596,8 +1633,8 @@
       <c r="E19" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>116</v>
+      <c r="F19" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -1615,7 +1652,9 @@
       <c r="E20" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1632,7 +1671,9 @@
       <c r="E21" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1649,7 +1690,9 @@
       <c r="E22" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1666,7 +1709,9 @@
       <c r="E23" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1681,9 +1726,11 @@
         <v>99</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F24" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1691,10 +1738,18 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1702,10 +1757,18 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1713,10 +1776,18 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1724,10 +1795,18 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1735,10 +1814,18 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1746,10 +1833,18 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1757,10 +1852,18 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1768,10 +1871,18 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1779,10 +1890,18 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1790,10 +1909,18 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1801,10 +1928,18 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1812,10 +1947,18 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1823,10 +1966,18 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1834,10 +1985,18 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1845,10 +2004,18 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1856,10 +2023,18 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1867,10 +2042,18 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1878,10 +2061,18 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1889,10 +2080,18 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
+      <c r="C43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1900,1295 +2099,288 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="G44" s="1"/>
     </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4009DE36-F9A8-4522-9F5C-56EF32EAE98B}">
-  <dimension ref="B2:G44"/>
-  <sheetViews>
-    <sheetView zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.58203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.08203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="1">
-        <f>ROW()-2</f>
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="1">
-        <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" s="1">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45" t="s">
+        <v>69</v>
+      </c>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="1">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" s="1">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="1">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" s="1">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" s="1">
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="C51" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="1">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="C52" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" s="1">
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="C53" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54" s="1">
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="C54" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" s="1">
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="1">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="1">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="1">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="1">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="1">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="1">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="1">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="1">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="1">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="1">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="1">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="1">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="1">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="1">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="1">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="1">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="1">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="1">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="1">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="1">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="1">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB15A5F4-F3D4-4BD8-9816-566626F542AC}">
-  <dimension ref="B2:G44"/>
-  <sheetViews>
-    <sheetView topLeftCell="B4" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="161.58203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.08203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="1">
-        <f>ROW()-2</f>
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="C55" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56" s="1">
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C56" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="1">
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="C57" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" s="1">
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="1">
-        <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="1">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="C58" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="1">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="1">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="1">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="1">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="1">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="1">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="1">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="1">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="1">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="1">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="1">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="1">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="1">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="1">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="1">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="1">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="1">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="1">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="1">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="1">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G59" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3198,6 +2390,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -3368,12 +2566,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3384,6 +2576,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3402,23 +2611,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>

--- a/doc/05_ファイル構成一覧表_BtwoB.xlsx
+++ b/doc/05_ファイル構成一覧表_BtwoB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6_sub\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51120293-834A-42EE-9C8C-C0B750633EB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E29374-8C0E-4292-8CF9-FE18B6DB9E70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33075" yWindow="1605" windowWidth="19065" windowHeight="12090" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="32775" yWindow="1320" windowWidth="19065" windowHeight="12075" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="ファイル構成" sheetId="1" r:id="rId1"/>
@@ -536,28 +536,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>登録完了ポップアップ、削除選択ポップアップ、ゲーム開始ポップアップで共通</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>キョウツウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログイン画面、新規登録画面用css。ログイン画面に表示するポップアップのOKボタンの作成。</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
@@ -885,6 +863,31 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン失敗ポップアップ、登録完了ポップアップ、削除選択ポップアップ、ゲーム開始ポップアップで共通</t>
+    <rPh sb="4" eb="6">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>キョウツウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -953,7 +956,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -961,9 +964,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1280,10 +1280,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G59"/>
+  <dimension ref="B2:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="F31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1533,13 +1533,13 @@
         <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -1552,13 +1552,13 @@
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -1571,13 +1571,13 @@
         <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -1590,13 +1590,13 @@
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -1609,13 +1609,13 @@
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -1628,13 +1628,13 @@
         <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -1647,13 +1647,13 @@
         <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -1666,13 +1666,13 @@
         <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -1685,13 +1685,13 @@
         <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -1704,13 +1704,13 @@
         <v>6</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -1723,13 +1723,13 @@
         <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G24" s="1"/>
     </row>
@@ -1995,7 +1995,7 @@
         <v>73</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G38" s="1"/>
     </row>
@@ -2033,7 +2033,7 @@
         <v>75</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="G40" s="1"/>
     </row>
@@ -2049,10 +2049,10 @@
         <v>55</v>
       </c>
       <c r="E41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="G41" s="1"/>
     </row>
@@ -2109,7 +2109,7 @@
         <v>62</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G44" s="1"/>
     </row>
@@ -2144,10 +2144,10 @@
         <v>55</v>
       </c>
       <c r="E46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="G46" s="1"/>
     </row>
@@ -2214,16 +2214,16 @@
         <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="E50" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G50" s="1"/>
     </row>
@@ -2233,16 +2233,16 @@
         <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="E51" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G51" s="1"/>
     </row>
@@ -2252,16 +2252,16 @@
         <v>50</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="E52" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="G52" s="1"/>
     </row>
@@ -2271,16 +2271,16 @@
         <v>51</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="E53" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="G53" s="1"/>
     </row>
@@ -2290,16 +2290,16 @@
         <v>52</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="G54" s="1"/>
     </row>
@@ -2309,16 +2309,16 @@
         <v>53</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="E55" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G55" s="1"/>
     </row>
@@ -2328,13 +2328,13 @@
         <v>54</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="E56" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>70</v>
@@ -2347,13 +2347,13 @@
         <v>55</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="E57" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>71</v>
@@ -2366,21 +2366,18 @@
         <v>56</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="E58" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>72</v>
       </c>
       <c r="G58" s="1"/>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G59" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2390,9 +2387,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2567,27 +2567,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2612,9 +2600,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_BtwoB.xlsx
+++ b/doc/05_ファイル構成一覧表_BtwoB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E29374-8C0E-4292-8CF9-FE18B6DB9E70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A6ED86-219D-44DF-A774-542131F0851E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32775" yWindow="1320" windowWidth="19065" windowHeight="12075" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="ファイル構成" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="137">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -888,6 +888,113 @@
     </rPh>
     <rPh sb="47" eb="49">
       <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリック破壊ゲーム画面用js、スペースキー連打ゲーム画面用js</t>
+    <rPh sb="4" eb="6">
+      <t>ハカイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字クリックゲーム画面用js</t>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヤギのご飯ゲーム（手紙選択）画面用js</t>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヤギのご飯ゲーム（手紙給仕）画面用js</t>
+    <rPh sb="9" eb="11">
+      <t>テガミ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キュウジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JavaScript</t>
+  </si>
+  <si>
+    <t>WebContent/js</t>
+  </si>
+  <si>
+    <t>page_top.js</t>
+  </si>
+  <si>
+    <t>ページトップリンク用js</t>
+    <rPh sb="9" eb="10">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>森内</t>
+    <rPh sb="0" eb="2">
+      <t>モリウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藤橋</t>
+    <rPh sb="0" eb="2">
+      <t>フジハシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佐野</t>
+    <rPh sb="0" eb="2">
+      <t>サノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長谷川</t>
+    <rPh sb="0" eb="3">
+      <t>ハセガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上田</t>
+    <rPh sb="0" eb="2">
+      <t>カミダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>早野</t>
+    <rPh sb="0" eb="2">
+      <t>ハヤノ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -913,7 +1020,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -923,6 +1030,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,7 +1069,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -964,6 +1077,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1280,10 +1402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G58"/>
+  <dimension ref="B2:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1332,7 +1454,9 @@
       <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="5" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
@@ -1351,7 +1475,9 @@
       <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="5" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1">
@@ -1370,7 +1496,9 @@
       <c r="F5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="5" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1">
@@ -1389,7 +1517,9 @@
       <c r="F6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="5" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1">
@@ -1408,7 +1538,9 @@
       <c r="F7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="5" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1">
@@ -1427,7 +1559,9 @@
       <c r="F8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="5" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1">
@@ -1446,7 +1580,9 @@
       <c r="F9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="5" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1">
@@ -1465,7 +1601,9 @@
       <c r="F10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="5" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1">
@@ -1484,7 +1622,9 @@
       <c r="F11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="5" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1">
@@ -1503,7 +1643,9 @@
       <c r="F12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="5" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1">
@@ -1522,7 +1664,9 @@
       <c r="F13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="5" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1">
@@ -1541,7 +1685,9 @@
       <c r="F14" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="5" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="1">
@@ -1560,7 +1706,9 @@
       <c r="F15" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="5" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="1">
@@ -1579,7 +1727,9 @@
       <c r="F16" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="5" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="1">
@@ -1598,7 +1748,9 @@
       <c r="F17" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="5" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="1">
@@ -1617,7 +1769,9 @@
       <c r="F18" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="5" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="1">
@@ -1636,7 +1790,9 @@
       <c r="F19" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="5" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="1">
@@ -1655,7 +1811,9 @@
       <c r="F20" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="5" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="1">
@@ -1674,7 +1832,9 @@
       <c r="F21" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="5" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="1">
@@ -1693,7 +1853,9 @@
       <c r="F22" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="G22" s="5" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="1">
@@ -1712,7 +1874,9 @@
       <c r="F23" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="G23" s="5" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="1">
@@ -1731,7 +1895,9 @@
       <c r="F24" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="G24" s="5" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="1">
@@ -1750,7 +1916,9 @@
       <c r="F25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="5" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="1">
@@ -1769,7 +1937,9 @@
       <c r="F26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G26" s="1"/>
+      <c r="G26" s="5" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="1">
@@ -1788,7 +1958,9 @@
       <c r="F27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="1"/>
+      <c r="G27" s="5" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="1">
@@ -1807,7 +1979,9 @@
       <c r="F28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="1"/>
+      <c r="G28" s="5" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="1">
@@ -1826,7 +2000,9 @@
       <c r="F29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G29" s="1"/>
+      <c r="G29" s="5" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="1">
@@ -1845,7 +2021,9 @@
       <c r="F30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G30" s="1"/>
+      <c r="G30" s="5" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="1">
@@ -1864,7 +2042,9 @@
       <c r="F31" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G31" s="1"/>
+      <c r="G31" s="5" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="1">
@@ -1883,7 +2063,9 @@
       <c r="F32" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G32" s="1"/>
+      <c r="G32" s="5" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="1">
@@ -1902,7 +2084,9 @@
       <c r="F33" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G33" s="1"/>
+      <c r="G33" s="5" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="1">
@@ -1921,7 +2105,9 @@
       <c r="F34" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G34" s="1"/>
+      <c r="G34" s="5" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="1">
@@ -1940,7 +2126,9 @@
       <c r="F35" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G35" s="1"/>
+      <c r="G35" s="5" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="1">
@@ -1959,7 +2147,9 @@
       <c r="F36" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G36" s="1"/>
+      <c r="G36" s="5" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="1">
@@ -1978,7 +2168,9 @@
       <c r="F37" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G37" s="1"/>
+      <c r="G37" s="5" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="1">
@@ -1997,7 +2189,9 @@
       <c r="F38" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G38" s="1"/>
+      <c r="G38" s="5" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="1">
@@ -2016,7 +2210,9 @@
       <c r="F39" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G39" s="1"/>
+      <c r="G39" s="5" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="1">
@@ -2035,7 +2231,9 @@
       <c r="F40" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G40" s="1"/>
+      <c r="G40" s="5" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="1">
@@ -2054,7 +2252,9 @@
       <c r="F41" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G41" s="1"/>
+      <c r="G41" s="5" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="1">
@@ -2073,7 +2273,9 @@
       <c r="F42" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G42" s="1"/>
+      <c r="G42" s="5" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="1">
@@ -2092,7 +2294,9 @@
       <c r="F43" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G43" s="1"/>
+      <c r="G43" s="5" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="1">
@@ -2111,7 +2315,9 @@
       <c r="F44" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G44" s="1"/>
+      <c r="G44" s="5" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="1">
@@ -2130,7 +2336,9 @@
       <c r="F45" t="s">
         <v>69</v>
       </c>
-      <c r="G45" s="1"/>
+      <c r="G45" s="5" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="1">
@@ -2149,7 +2357,9 @@
       <c r="F46" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G46" s="1"/>
+      <c r="G46" s="5" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="1">
@@ -2168,7 +2378,9 @@
       <c r="F47" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G47" s="1"/>
+      <c r="G47" s="5" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="1">
@@ -2187,7 +2399,9 @@
       <c r="F48" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G48" s="1"/>
+      <c r="G48" s="5" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="1">
@@ -2206,7 +2420,9 @@
       <c r="F49" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G49" s="1"/>
+      <c r="G49" s="5" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="1">
@@ -2225,7 +2441,9 @@
       <c r="F50" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G50" s="1"/>
+      <c r="G50" s="5" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="1">
@@ -2244,7 +2462,9 @@
       <c r="F51" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G51" s="1"/>
+      <c r="G51" s="5" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="1">
@@ -2263,7 +2483,9 @@
       <c r="F52" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G52" s="1"/>
+      <c r="G52" s="5" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="1">
@@ -2282,7 +2504,9 @@
       <c r="F53" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G53" s="1"/>
+      <c r="G53" s="5" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="1">
@@ -2301,7 +2525,9 @@
       <c r="F54" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G54" s="1"/>
+      <c r="G54" s="5" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="1">
@@ -2318,9 +2544,11 @@
         <v>94</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G55" s="1"/>
+        <v>123</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="1">
@@ -2337,9 +2565,11 @@
         <v>95</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G56" s="1"/>
+        <v>124</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="1">
@@ -2356,9 +2586,11 @@
         <v>96</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G57" s="1"/>
+        <v>125</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="1">
@@ -2375,9 +2607,31 @@
         <v>97</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G58" s="1"/>
+        <v>126</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" s="3">
+        <v>57</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>131</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2387,12 +2641,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2567,15 +2818,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2600,18 +2863,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_BtwoB.xlsx
+++ b/doc/05_ファイル構成一覧表_BtwoB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A6ED86-219D-44DF-A774-542131F0851E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAB9E88-EBBA-40E5-B372-6E121510D240}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="36105" yWindow="315" windowWidth="19335" windowHeight="15105" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="ファイル構成" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="138">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -947,9 +947,6 @@
     <t>WebContent/js</t>
   </si>
   <si>
-    <t>page_top.js</t>
-  </si>
-  <si>
     <t>ページトップリンク用js</t>
     <rPh sb="9" eb="10">
       <t>ヨウ</t>
@@ -996,6 +993,14 @@
     <rPh sb="0" eb="2">
       <t>ハヤノ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>scroll_graph.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>page_top.js</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1069,7 +1074,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1079,13 +1084,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1404,8 +1403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1454,8 +1453,8 @@
       <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>132</v>
+      <c r="G3" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1475,8 +1474,8 @@
       <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>133</v>
+      <c r="G4" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1496,8 +1495,8 @@
       <c r="F5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>131</v>
+      <c r="G5" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1517,8 +1516,8 @@
       <c r="F6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>133</v>
+      <c r="G6" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1538,8 +1537,8 @@
       <c r="F7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>131</v>
+      <c r="G7" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1559,8 +1558,8 @@
       <c r="F8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>131</v>
+      <c r="G8" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1580,8 +1579,8 @@
       <c r="F9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>134</v>
+      <c r="G9" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1601,8 +1600,8 @@
       <c r="F10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>134</v>
+      <c r="G10" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1622,8 +1621,8 @@
       <c r="F11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>135</v>
+      <c r="G11" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1643,8 +1642,8 @@
       <c r="F12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>136</v>
+      <c r="G12" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1664,8 +1663,8 @@
       <c r="F13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>136</v>
+      <c r="G13" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1685,8 +1684,8 @@
       <c r="F14" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>132</v>
+      <c r="G14" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1706,8 +1705,8 @@
       <c r="F15" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>133</v>
+      <c r="G15" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1727,8 +1726,8 @@
       <c r="F16" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>135</v>
+      <c r="G16" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1748,8 +1747,8 @@
       <c r="F17" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>136</v>
+      <c r="G17" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1769,8 +1768,8 @@
       <c r="F18" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>131</v>
+      <c r="G18" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1790,8 +1789,8 @@
       <c r="F19" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>132</v>
+      <c r="G19" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1811,8 +1810,8 @@
       <c r="F20" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>133</v>
+      <c r="G20" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1832,8 +1831,8 @@
       <c r="F21" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>135</v>
+      <c r="G21" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1853,8 +1852,8 @@
       <c r="F22" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>136</v>
+      <c r="G22" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1874,8 +1873,8 @@
       <c r="F23" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>131</v>
+      <c r="G23" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1895,8 +1894,8 @@
       <c r="F24" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>134</v>
+      <c r="G24" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1916,8 +1915,8 @@
       <c r="F25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>132</v>
+      <c r="G25" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1937,8 +1936,8 @@
       <c r="F26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G26" s="5" t="s">
-        <v>132</v>
+      <c r="G26" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1958,8 +1957,8 @@
       <c r="F27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="5" t="s">
-        <v>131</v>
+      <c r="G27" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1979,8 +1978,8 @@
       <c r="F28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>134</v>
+      <c r="G28" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2000,8 +1999,8 @@
       <c r="F29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G29" s="5" t="s">
-        <v>131</v>
+      <c r="G29" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2021,8 +2020,8 @@
       <c r="F30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G30" s="5" t="s">
-        <v>133</v>
+      <c r="G30" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2042,8 +2041,8 @@
       <c r="F31" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G31" s="5" t="s">
-        <v>136</v>
+      <c r="G31" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2063,8 +2062,8 @@
       <c r="F32" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G32" s="5" t="s">
-        <v>136</v>
+      <c r="G32" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2084,8 +2083,8 @@
       <c r="F33" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G33" s="5" t="s">
-        <v>136</v>
+      <c r="G33" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2105,8 +2104,8 @@
       <c r="F34" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G34" s="5" t="s">
-        <v>135</v>
+      <c r="G34" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2126,8 +2125,8 @@
       <c r="F35" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G35" s="5" t="s">
-        <v>135</v>
+      <c r="G35" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2147,8 +2146,8 @@
       <c r="F36" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G36" s="5" t="s">
-        <v>134</v>
+      <c r="G36" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2168,8 +2167,8 @@
       <c r="F37" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G37" s="5" t="s">
-        <v>132</v>
+      <c r="G37" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2189,8 +2188,8 @@
       <c r="F38" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G38" s="5" t="s">
-        <v>132</v>
+      <c r="G38" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2205,13 +2204,13 @@
         <v>55</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G39" s="5" t="s">
-        <v>133</v>
+      <c r="G39" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2231,8 +2230,8 @@
       <c r="F40" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G40" s="5" t="s">
-        <v>132</v>
+      <c r="G40" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2252,8 +2251,8 @@
       <c r="F41" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G41" s="5" t="s">
-        <v>132</v>
+      <c r="G41" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2273,8 +2272,8 @@
       <c r="F42" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G42" s="5" t="s">
-        <v>131</v>
+      <c r="G42" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2294,8 +2293,8 @@
       <c r="F43" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G43" s="5" t="s">
-        <v>134</v>
+      <c r="G43" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2315,8 +2314,8 @@
       <c r="F44" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G44" s="5" t="s">
-        <v>131</v>
+      <c r="G44" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2336,8 +2335,8 @@
       <c r="F45" t="s">
         <v>69</v>
       </c>
-      <c r="G45" s="5" t="s">
-        <v>133</v>
+      <c r="G45" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2357,8 +2356,8 @@
       <c r="F46" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G46" s="5" t="s">
-        <v>136</v>
+      <c r="G46" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2378,8 +2377,8 @@
       <c r="F47" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G47" s="5" t="s">
-        <v>136</v>
+      <c r="G47" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2399,8 +2398,8 @@
       <c r="F48" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G48" s="5" t="s">
-        <v>135</v>
+      <c r="G48" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2420,8 +2419,8 @@
       <c r="F49" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G49" s="5" t="s">
-        <v>135</v>
+      <c r="G49" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2441,8 +2440,8 @@
       <c r="F50" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G50" s="5" t="s">
-        <v>134</v>
+      <c r="G50" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2462,8 +2461,8 @@
       <c r="F51" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G51" s="5" t="s">
-        <v>133</v>
+      <c r="G51" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2483,8 +2482,8 @@
       <c r="F52" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G52" s="5" t="s">
-        <v>134</v>
+      <c r="G52" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2504,8 +2503,8 @@
       <c r="F53" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G53" s="5" t="s">
-        <v>136</v>
+      <c r="G53" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2525,8 +2524,8 @@
       <c r="F54" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G54" s="5" t="s">
-        <v>134</v>
+      <c r="G54" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2546,8 +2545,8 @@
       <c r="F55" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G55" s="5" t="s">
-        <v>135</v>
+      <c r="G55" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2567,8 +2566,8 @@
       <c r="F56" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G56" s="5" t="s">
-        <v>135</v>
+      <c r="G56" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2588,8 +2587,8 @@
       <c r="F57" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G57" s="5" t="s">
-        <v>133</v>
+      <c r="G57" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2609,28 +2608,28 @@
       <c r="F58" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G58" s="5" t="s">
-        <v>133</v>
+      <c r="G58" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B59" s="3">
+      <c r="B59" s="1">
         <v>57</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E59" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="G59" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2641,9 +2640,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2818,27 +2820,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2863,9 +2853,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_BtwoB.xlsx
+++ b/doc/05_ファイル構成一覧表_BtwoB.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAB9E88-EBBA-40E5-B372-6E121510D240}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99103021-1A21-4A4D-8DAC-B5D7B7CC6E74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36105" yWindow="315" windowWidth="19335" windowHeight="15105" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="ファイル構成" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ファイル構成!$B$2:$G$59</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1403,7 +1406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -2633,6 +2636,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B2:G59" xr:uid="{99C4C6C9-BF89-4048-BCB3-CFA75209347B}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2640,12 +2644,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2820,15 +2821,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2853,18 +2866,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_BtwoB.xlsx
+++ b/doc/05_ファイル構成一覧表_BtwoB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99103021-1A21-4A4D-8DAC-B5D7B7CC6E74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C8D840-8AC3-4C29-BEF3-C7CD07BE5137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="140">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1004,6 +1004,20 @@
   </si>
   <si>
     <t>page_top.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mur_in.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>愚痴入力画面用js</t>
+    <rPh sb="0" eb="4">
+      <t>グチニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ガメンヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1404,10 +1418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G59"/>
+  <dimension ref="B2:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="B43" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2635,6 +2649,26 @@
         <v>130</v>
       </c>
     </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60" s="1">
+        <v>58</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B2:G59" xr:uid="{99C4C6C9-BF89-4048-BCB3-CFA75209347B}"/>
   <phoneticPr fontId="1"/>
@@ -2644,9 +2678,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2821,27 +2858,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2866,9 +2891,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>